--- a/biology/Biologie cellulaire et moléculaire/Nature_Biotechnology/Nature_Biotechnology.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Nature_Biotechnology/Nature_Biotechnology.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nature Biotechnology est une revue scientifique britannique spécialisée dans les aspects de la recherche en biotechnologie. Nature Biotechnology est une revue de très haut niveau publiée en anglais une fois par mois depuis 1996.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette revue prend la suite de Bio/technology fondée en 1983 et rebaptisé Nature Biotechnology en 1996. Il s'agit d'une revue d'excellence dont le facteur d'impact en 2013 est de 39,080 soit parmi les 10 journaux scientifiques les plus cités au monde.
 </t>
@@ -543,7 +557,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel
  Portail de la presse écrite   Portail de la biologie cellulaire et moléculaire                    </t>
